--- a/MMA/Quant_Test_File2.xlsx
+++ b/MMA/Quant_Test_File2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinc./Documents/GitHub/Quant/MMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB3D2EA-A573-40FC-B827-2FC436B6FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D21725E-A3CE-DB46-8010-F3492108D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EBEB2C9-082E-4514-B340-825E7232E514}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{9EBEB2C9-082E-4514-B340-825E7232E514}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Analyst</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,20 +51,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>julia.jokic@mmafundmgmt.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>william.wang@mmafundmgmt.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jason.yang@mmafundmgmt.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cary.chen@mmafundmgmt.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ownme95172@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -75,14 +62,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -91,7 +78,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -131,8 +118,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,12 +434,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,37 +455,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5B9D0D66-994B-40B7-B591-22F5C1F95E59}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5EEA0266-13D0-44E9-B5FC-1955C602669E}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5EA51882-C6F2-40E7-B9F0-4601A084F004}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{BA1FCAA0-A616-4FC9-B5DC-C199719AF811}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E39A5ADD-90EB-8F48-B3DC-3AF716363559}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{19769FE4-8566-034A-A8AF-9E59C67B2E77}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{37DB3BB0-2ED2-6949-BC9F-009439E5AFBE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{93AAAC80-CC16-8C45-AA49-3AE75FB32D32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
